--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value75.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value75.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.48953813057526</v>
+        <v>3.885083913803101</v>
       </c>
       <c r="B1">
-        <v>1.677975524018194</v>
+        <v>5.206869602203369</v>
       </c>
       <c r="C1">
-        <v>1.751135489733622</v>
+        <v>6.728024482727051</v>
       </c>
       <c r="D1">
-        <v>2.261053191042156</v>
+        <v>11.30191516876221</v>
       </c>
       <c r="E1">
-        <v>2.472376602691466</v>
+        <v>4.450334548950195</v>
       </c>
     </row>
   </sheetData>
